--- a/NformTester/NformTester/Keywordscripts/900.10.040_NavigateView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.040_NavigateView.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="849">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3691,10 +3691,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>;Add new user from user group.</t>
   </si>
   <si>
@@ -3789,19 +3785,6 @@
     <t>VerifyContains</t>
   </si>
   <si>
-    <t>"UPS_10.146.83.10"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"UPS_10.146.83.11"</t>
-  </si>
-  <si>
-    <t>"UPS_10.146.83.12"</t>
-  </si>
-  <si>
-    <t>"UPS_10.146.83.13"</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3812,6 +3795,19 @@
   <si>
     <t>Alex</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_1$</t>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_2$</t>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_3$</t>
   </si>
 </sst>
 </file>
@@ -3886,6 +3882,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4795,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4885,7 +4882,7 @@
         <v>797</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C3" s="17">
         <v>2</v>
@@ -5289,7 +5286,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="17"/>
@@ -5381,7 +5378,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -5441,8 +5438,8 @@
       <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>818</v>
+      <c r="I22" s="17" t="s">
+        <v>845</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -5645,7 +5642,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -5664,7 +5661,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>19</v>
@@ -5689,7 +5686,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>19</v>
@@ -5714,7 +5711,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>235</v>
@@ -5739,7 +5736,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>248</v>
@@ -5751,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -5766,7 +5763,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>248</v>
@@ -5778,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="17"/>
@@ -5793,7 +5790,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>248</v>
@@ -5805,7 +5802,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -5820,7 +5817,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>248</v>
@@ -5832,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -5859,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -5874,7 +5871,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>248</v>
@@ -5886,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="17"/>
@@ -5901,7 +5898,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>248</v>
@@ -5913,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="17"/>
@@ -5928,7 +5925,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>248</v>
@@ -5937,10 +5934,10 @@
         <v>255</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>826</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>827</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
@@ -5955,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>248</v>
@@ -5964,10 +5961,10 @@
         <v>167</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -5982,7 +5979,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>248</v>
@@ -5994,7 +5991,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -6009,7 +6006,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>248</v>
@@ -6021,13 +6018,13 @@
         <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I44" s="17" t="s">
         <v>830</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="J44" s="4" t="s">
         <v>831</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>832</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -6040,7 +6037,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>248</v>
@@ -6052,7 +6049,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="17"/>
@@ -6067,7 +6064,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>248</v>
@@ -6079,7 +6076,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -6094,7 +6091,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>248</v>
@@ -6119,7 +6116,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>248</v>
@@ -6144,7 +6141,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>248</v>
@@ -6169,7 +6166,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>248</v>
@@ -6194,7 +6191,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>248</v>
@@ -6219,7 +6216,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>248</v>
@@ -6269,7 +6266,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>248</v>
@@ -6294,7 +6291,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="17"/>
@@ -6370,13 +6367,13 @@
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
@@ -6515,13 +6512,13 @@
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="I64" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="I64" s="17" t="s">
+      <c r="J64" s="17" t="s">
         <v>839</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>840</v>
       </c>
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
@@ -6664,7 +6661,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>19</v>
@@ -6691,7 +6688,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>19</v>
@@ -6700,10 +6697,10 @@
         <v>96</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>845</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
@@ -6718,7 +6715,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>19</v>
@@ -6727,10 +6724,10 @@
         <v>96</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>846</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -6745,7 +6742,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>19</v>
@@ -6754,10 +6751,10 @@
         <v>96</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>845</v>
+        <v>841</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>847</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -6774,7 +6771,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>19</v>
@@ -6783,10 +6780,10 @@
         <v>96</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>848</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
@@ -6803,10 +6800,10 @@
         <v>74</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F75" s="17">
         <v>2</v>
@@ -6843,7 +6840,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>19</v>
@@ -6867,7 +6864,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>19</v>
@@ -6891,7 +6888,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>235</v>
@@ -6903,7 +6900,7 @@
         <v>56</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="17"/>
@@ -6917,7 +6914,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>235</v>
